--- a/4. CASH OF NAME YEARLY/CO Tahunan - berjalan.xlsx
+++ b/4. CASH OF NAME YEARLY/CO Tahunan - berjalan.xlsx
@@ -2310,7 +2310,7 @@
   <dimension ref="A2:K56"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3097,7 +3097,7 @@
         <v>100000</v>
       </c>
       <c r="E12" s="76">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F12" s="71"/>
       <c r="G12" s="36" t="s">
@@ -3105,7 +3105,7 @@
       </c>
       <c r="H12" s="37">
         <f>D12*E12</f>
-        <v>14600000</v>
+        <v>14200000</v>
       </c>
       <c r="I12" s="31"/>
       <c r="J12" s="30"/>
@@ -3119,7 +3119,7 @@
         <v>50000</v>
       </c>
       <c r="E13" s="76">
-        <v>148</v>
+        <v>83</v>
       </c>
       <c r="F13" s="72"/>
       <c r="G13" s="36" t="s">
@@ -3127,7 +3127,7 @@
       </c>
       <c r="H13" s="37">
         <f t="shared" ref="H13:H18" si="0">D13*E13</f>
-        <v>7400000</v>
+        <v>4150000</v>
       </c>
       <c r="I13" s="31"/>
       <c r="J13" s="30"/>
@@ -3141,7 +3141,7 @@
         <v>20000</v>
       </c>
       <c r="E14" s="76">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F14" s="72"/>
       <c r="G14" s="36" t="s">
@@ -3149,7 +3149,7 @@
       </c>
       <c r="H14" s="37">
         <f t="shared" si="0"/>
-        <v>520000</v>
+        <v>340000</v>
       </c>
       <c r="I14" s="31"/>
       <c r="J14" s="30"/>
@@ -3163,7 +3163,7 @@
         <v>10000</v>
       </c>
       <c r="E15" s="76">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="F15" s="72"/>
       <c r="G15" s="36" t="s">
@@ -3171,7 +3171,7 @@
       </c>
       <c r="H15" s="37">
         <f t="shared" si="0"/>
-        <v>670000</v>
+        <v>420000</v>
       </c>
       <c r="I15" s="31"/>
       <c r="J15" s="30"/>
@@ -3185,7 +3185,7 @@
         <v>5000</v>
       </c>
       <c r="E16" s="76">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F16" s="72"/>
       <c r="G16" s="36" t="s">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="H16" s="37">
         <f t="shared" si="0"/>
-        <v>445000</v>
+        <v>460000</v>
       </c>
       <c r="I16" s="31"/>
       <c r="J16" s="30"/>
@@ -3207,7 +3207,7 @@
         <v>2000</v>
       </c>
       <c r="E17" s="76">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="F17" s="72"/>
       <c r="G17" s="36" t="s">
@@ -3215,7 +3215,7 @@
       </c>
       <c r="H17" s="37">
         <f t="shared" si="0"/>
-        <v>148000</v>
+        <v>96000</v>
       </c>
       <c r="I17" s="31"/>
       <c r="J17" s="30"/>
@@ -3229,7 +3229,7 @@
         <v>1000</v>
       </c>
       <c r="E18" s="76">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="72"/>
       <c r="G18" s="36" t="s">
@@ -3237,7 +3237,7 @@
       </c>
       <c r="H18" s="37">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="I18" s="31"/>
       <c r="J18" s="30"/>
@@ -3297,7 +3297,7 @@
         <v>500</v>
       </c>
       <c r="E22" s="76">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F22" s="72"/>
       <c r="G22" s="36" t="s">
@@ -3305,7 +3305,7 @@
       </c>
       <c r="H22" s="37">
         <f t="shared" ref="H22:H28" si="1">D22*E22</f>
-        <v>258500</v>
+        <v>256500</v>
       </c>
       <c r="I22" s="31"/>
       <c r="J22" s="30"/>
@@ -3467,7 +3467,7 @@
       </c>
       <c r="H30" s="46">
         <f>SUM(G12:H28)</f>
-        <v>24077600</v>
+        <v>19956600</v>
       </c>
       <c r="I30" s="31"/>
       <c r="J30" s="30"/>
@@ -3484,7 +3484,7 @@
         <v>43</v>
       </c>
       <c r="H31" s="41">
-        <v>141059300</v>
+        <v>107069300</v>
       </c>
       <c r="I31" s="31"/>
       <c r="J31" s="30"/>
@@ -3502,7 +3502,7 @@
       </c>
       <c r="H32" s="51">
         <f>H30+H31</f>
-        <v>165136900</v>
+        <v>127025900</v>
       </c>
       <c r="I32" s="31"/>
       <c r="J32" s="30"/>
@@ -3519,7 +3519,7 @@
         <v>43</v>
       </c>
       <c r="H33" s="53">
-        <v>165083400</v>
+        <v>126937400</v>
       </c>
       <c r="I33" s="31"/>
       <c r="J33" s="30"/>
@@ -3537,12 +3537,12 @@
       </c>
       <c r="H34" s="58">
         <f>+H32-H33</f>
-        <v>53500</v>
+        <v>88500</v>
       </c>
       <c r="I34" s="31"/>
       <c r="J34" s="65">
         <f>+H34+5100000+15000000+500000+400000</f>
-        <v>21053500</v>
+        <v>21088500</v>
       </c>
       <c r="K34" s="78"/>
     </row>

--- a/4. CASH OF NAME YEARLY/CO Tahunan - berjalan.xlsx
+++ b/4. CASH OF NAME YEARLY/CO Tahunan - berjalan.xlsx
@@ -950,6 +950,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -969,24 +987,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1048,7 +1048,7 @@
         <xdr:cNvPr id="2" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2959,29 +2959,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
       <c r="J2" s="22"/>
     </row>
     <row r="3" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
       <c r="J3" s="22"/>
     </row>
     <row r="4" spans="1:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3023,27 +3023,27 @@
       <c r="J6" s="30"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="90" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="84"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="90"/>
       <c r="J7" s="30"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="84"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="84"/>
+      <c r="B8" s="90"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="90"/>
+      <c r="I8" s="90"/>
       <c r="J8" s="30"/>
     </row>
     <row r="9" spans="1:11" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3059,28 +3059,28 @@
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="31"/>
-      <c r="C10" s="85" t="s">
+      <c r="C10" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="86"/>
-      <c r="E10" s="87" t="s">
+      <c r="D10" s="92"/>
+      <c r="E10" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88" t="s">
+      <c r="F10" s="94"/>
+      <c r="G10" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="89"/>
+      <c r="H10" s="95"/>
       <c r="I10" s="32"/>
       <c r="J10" s="33"/>
       <c r="K10" s="34"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="31"/>
-      <c r="C11" s="91" t="s">
+      <c r="C11" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="92"/>
+      <c r="D11" s="85"/>
       <c r="E11" s="81"/>
       <c r="F11" s="80"/>
       <c r="G11" s="31"/>
@@ -3097,7 +3097,7 @@
         <v>100000</v>
       </c>
       <c r="E12" s="76">
-        <v>142</v>
+        <v>399</v>
       </c>
       <c r="F12" s="71"/>
       <c r="G12" s="36" t="s">
@@ -3105,7 +3105,7 @@
       </c>
       <c r="H12" s="37">
         <f>D12*E12</f>
-        <v>14200000</v>
+        <v>39900000</v>
       </c>
       <c r="I12" s="31"/>
       <c r="J12" s="30"/>
@@ -3119,7 +3119,7 @@
         <v>50000</v>
       </c>
       <c r="E13" s="76">
-        <v>83</v>
+        <v>494</v>
       </c>
       <c r="F13" s="72"/>
       <c r="G13" s="36" t="s">
@@ -3127,7 +3127,7 @@
       </c>
       <c r="H13" s="37">
         <f t="shared" ref="H13:H18" si="0">D13*E13</f>
-        <v>4150000</v>
+        <v>24700000</v>
       </c>
       <c r="I13" s="31"/>
       <c r="J13" s="30"/>
@@ -3141,7 +3141,7 @@
         <v>20000</v>
       </c>
       <c r="E14" s="76">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F14" s="72"/>
       <c r="G14" s="36" t="s">
@@ -3149,7 +3149,7 @@
       </c>
       <c r="H14" s="37">
         <f t="shared" si="0"/>
-        <v>340000</v>
+        <v>580000</v>
       </c>
       <c r="I14" s="31"/>
       <c r="J14" s="30"/>
@@ -3163,7 +3163,7 @@
         <v>10000</v>
       </c>
       <c r="E15" s="76">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F15" s="72"/>
       <c r="G15" s="36" t="s">
@@ -3171,7 +3171,7 @@
       </c>
       <c r="H15" s="37">
         <f t="shared" si="0"/>
-        <v>420000</v>
+        <v>460000</v>
       </c>
       <c r="I15" s="31"/>
       <c r="J15" s="30"/>
@@ -3185,7 +3185,7 @@
         <v>5000</v>
       </c>
       <c r="E16" s="76">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="F16" s="72"/>
       <c r="G16" s="36" t="s">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="H16" s="37">
         <f t="shared" si="0"/>
-        <v>460000</v>
+        <v>505000</v>
       </c>
       <c r="I16" s="31"/>
       <c r="J16" s="30"/>
@@ -3207,7 +3207,7 @@
         <v>2000</v>
       </c>
       <c r="E17" s="76">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F17" s="72"/>
       <c r="G17" s="36" t="s">
@@ -3215,7 +3215,7 @@
       </c>
       <c r="H17" s="37">
         <f t="shared" si="0"/>
-        <v>96000</v>
+        <v>82000</v>
       </c>
       <c r="I17" s="31"/>
       <c r="J17" s="30"/>
@@ -3229,7 +3229,7 @@
         <v>1000</v>
       </c>
       <c r="E18" s="76">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F18" s="72"/>
       <c r="G18" s="36" t="s">
@@ -3237,7 +3237,7 @@
       </c>
       <c r="H18" s="37">
         <f t="shared" si="0"/>
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="I18" s="31"/>
       <c r="J18" s="30"/>
@@ -3255,10 +3255,10 @@
     </row>
     <row r="20" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="31"/>
-      <c r="C20" s="93" t="s">
+      <c r="C20" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="94"/>
+      <c r="D20" s="87"/>
       <c r="E20" s="20"/>
       <c r="F20" s="72"/>
       <c r="G20" s="38"/>
@@ -3275,7 +3275,7 @@
         <v>1000</v>
       </c>
       <c r="E21" s="76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21" s="72"/>
       <c r="G21" s="36" t="s">
@@ -3283,7 +3283,7 @@
       </c>
       <c r="H21" s="37">
         <f>D21*E21</f>
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="I21" s="31"/>
       <c r="J21" s="30"/>
@@ -3297,7 +3297,7 @@
         <v>500</v>
       </c>
       <c r="E22" s="76">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F22" s="72"/>
       <c r="G22" s="36" t="s">
@@ -3305,7 +3305,7 @@
       </c>
       <c r="H22" s="37">
         <f t="shared" ref="H22:H28" si="1">D22*E22</f>
-        <v>256500</v>
+        <v>255000</v>
       </c>
       <c r="I22" s="31"/>
       <c r="J22" s="30"/>
@@ -3319,7 +3319,7 @@
         <v>200</v>
       </c>
       <c r="E23" s="76">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F23" s="72"/>
       <c r="G23" s="36" t="s">
@@ -3327,7 +3327,7 @@
       </c>
       <c r="H23" s="37">
         <f t="shared" si="1"/>
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="I23" s="31"/>
       <c r="J23" s="30"/>
@@ -3341,7 +3341,7 @@
         <v>100</v>
       </c>
       <c r="E24" s="76">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F24" s="72"/>
       <c r="G24" s="36" t="s">
@@ -3349,7 +3349,7 @@
       </c>
       <c r="H24" s="37">
         <f t="shared" si="1"/>
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="I24" s="31"/>
       <c r="J24" s="30"/>
@@ -3467,7 +3467,7 @@
       </c>
       <c r="H30" s="46">
         <f>SUM(G12:H28)</f>
-        <v>19956600</v>
+        <v>66513600</v>
       </c>
       <c r="I30" s="31"/>
       <c r="J30" s="30"/>
@@ -3484,7 +3484,7 @@
         <v>43</v>
       </c>
       <c r="H31" s="41">
-        <v>107069300</v>
+        <v>178644300</v>
       </c>
       <c r="I31" s="31"/>
       <c r="J31" s="30"/>
@@ -3502,7 +3502,7 @@
       </c>
       <c r="H32" s="51">
         <f>H30+H31</f>
-        <v>127025900</v>
+        <v>245157900</v>
       </c>
       <c r="I32" s="31"/>
       <c r="J32" s="30"/>
@@ -3519,7 +3519,7 @@
         <v>43</v>
       </c>
       <c r="H33" s="53">
-        <v>126937400</v>
+        <v>245069400</v>
       </c>
       <c r="I33" s="31"/>
       <c r="J33" s="30"/>
@@ -3731,40 +3731,40 @@
       <c r="J48" s="67"/>
     </row>
     <row r="49" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="90" t="s">
+      <c r="B49" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="90"/>
-      <c r="D49" s="90"/>
-      <c r="E49" s="90"/>
-      <c r="F49" s="90"/>
-      <c r="G49" s="90"/>
-      <c r="H49" s="90"/>
-      <c r="I49" s="90"/>
+      <c r="C49" s="83"/>
+      <c r="D49" s="83"/>
+      <c r="E49" s="83"/>
+      <c r="F49" s="83"/>
+      <c r="G49" s="83"/>
+      <c r="H49" s="83"/>
+      <c r="I49" s="83"/>
     </row>
     <row r="50" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="90" t="s">
+      <c r="B50" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="90"/>
-      <c r="D50" s="90"/>
-      <c r="E50" s="90"/>
-      <c r="F50" s="90"/>
-      <c r="G50" s="90"/>
-      <c r="H50" s="90"/>
-      <c r="I50" s="90"/>
+      <c r="C50" s="83"/>
+      <c r="D50" s="83"/>
+      <c r="E50" s="83"/>
+      <c r="F50" s="83"/>
+      <c r="G50" s="83"/>
+      <c r="H50" s="83"/>
+      <c r="I50" s="83"/>
     </row>
     <row r="51" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="90" t="s">
+      <c r="B51" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="C51" s="90"/>
-      <c r="D51" s="90"/>
-      <c r="E51" s="90"/>
-      <c r="F51" s="90"/>
-      <c r="G51" s="90"/>
-      <c r="H51" s="90"/>
-      <c r="I51" s="90"/>
+      <c r="C51" s="83"/>
+      <c r="D51" s="83"/>
+      <c r="E51" s="83"/>
+      <c r="F51" s="83"/>
+      <c r="G51" s="83"/>
+      <c r="H51" s="83"/>
+      <c r="I51" s="83"/>
     </row>
     <row r="52" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="27"/>
@@ -3787,28 +3787,28 @@
       <c r="I53" s="31"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="95" t="s">
+      <c r="B54" s="88" t="s">
         <v>54</v>
       </c>
-      <c r="C54" s="95"/>
-      <c r="D54" s="95"/>
-      <c r="E54" s="95"/>
-      <c r="F54" s="95"/>
-      <c r="G54" s="95"/>
-      <c r="H54" s="95"/>
-      <c r="I54" s="95"/>
+      <c r="C54" s="88"/>
+      <c r="D54" s="88"/>
+      <c r="E54" s="88"/>
+      <c r="F54" s="88"/>
+      <c r="G54" s="88"/>
+      <c r="H54" s="88"/>
+      <c r="I54" s="88"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B55" s="90" t="s">
+      <c r="B55" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="C55" s="90"/>
-      <c r="D55" s="90"/>
-      <c r="E55" s="90"/>
-      <c r="F55" s="90"/>
-      <c r="G55" s="90"/>
-      <c r="H55" s="90"/>
-      <c r="I55" s="90"/>
+      <c r="C55" s="83"/>
+      <c r="D55" s="83"/>
+      <c r="E55" s="83"/>
+      <c r="F55" s="83"/>
+      <c r="G55" s="83"/>
+      <c r="H55" s="83"/>
+      <c r="I55" s="83"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="31"/>
@@ -3822,6 +3822,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B7:I8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
     <mergeCell ref="B55:I55"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C20:D20"/>
@@ -3829,12 +3835,6 @@
     <mergeCell ref="B50:I50"/>
     <mergeCell ref="B51:I51"/>
     <mergeCell ref="B54:I54"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B7:I8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="82" orientation="portrait" r:id="rId1"/>
